--- a/LEM12/Histéresis/redatoshisteresis/data.xlsx
+++ b/LEM12/Histéresis/redatoshisteresis/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erwinplanck/Desktop/Physics/Physics Lab III/LEM12/Histéresis/redatoshisteresis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA4EB05-EEB6-CE43-9F65-CF3739F5BCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21DDF3D-E14C-C14B-AD29-B326BDA6D333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" activeTab="1" xr2:uid="{C0893DB8-B0CD-49F7-9F7D-8AED081AAFEA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{C0893DB8-B0CD-49F7-9F7D-8AED081AAFEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -283,7 +283,43 @@
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14633480492332651"/>
+                  <c:y val="0.50813782894485604"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-ES"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1423,11 +1459,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D714DA5-A7A8-4E0C-BF63-13596CF2DE0F}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1477,6 +1516,10 @@
       <c r="B5">
         <v>-451.94600000000003</v>
       </c>
+      <c r="E5">
+        <f>AVERAGE(B5:B6)</f>
+        <v>-442.10599999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1602,6 +1645,14 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <f>C8/(4*PI()*0.0000001) - B8</f>
+        <v>108225.36130248883</v>
+      </c>
+      <c r="C14">
+        <f>SQRT((0.001/(4*PI()*0.0000001))^2 + (0.001)^2)</f>
+        <v>795.77471546010509</v>
+      </c>
       <c r="H14" t="s">
         <v>18</v>
       </c>
@@ -1620,6 +1671,16 @@
         <v>-0.48099999999999998</v>
       </c>
     </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <f>C9/(4*PI()*0.0000001) - B9</f>
+        <v>-109816.91073340779</v>
+      </c>
+      <c r="C15">
+        <f>SQRT((0.001/(4*PI()*0.0000001))^2 + (0.001)^2)</f>
+        <v>795.77471546010509</v>
+      </c>
+    </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H16" t="s">
         <v>19</v>
@@ -1631,7 +1692,7 @@
         <v>-1810.826</v>
       </c>
     </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H17" t="s">
         <v>20</v>
       </c>
@@ -1642,7 +1703,25 @@
         <v>-0.32700000000000001</v>
       </c>
     </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <f>C4/(4*PI()*0.0000001) - B4</f>
+        <v>404294.47831525211</v>
+      </c>
+      <c r="C18">
+        <f>SQRT((0.001/(4*PI()*0.0000001))^2 + (0.001)^2)</f>
+        <v>795.77471546010509</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <f>C3/(4*PI()*0.0000001) - B3</f>
+        <v>-407483.74317708996</v>
+      </c>
+      <c r="C19">
+        <f>SQRT((0.001/(4*PI()*0.0000001))^2 + (0.001)^2)</f>
+        <v>795.77471546010509</v>
+      </c>
       <c r="H19" t="s">
         <v>21</v>
       </c>
@@ -1653,7 +1732,11 @@
         <v>-2466.5419999999999</v>
       </c>
     </row>
-    <row r="20" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <f>0.001/(4*PI()*0.0000001)</f>
+        <v>795.77471545947674</v>
+      </c>
       <c r="H20" t="s">
         <v>22</v>
       </c>
@@ -1664,7 +1747,7 @@
         <v>-0.41399999999999998</v>
       </c>
     </row>
-    <row r="22" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H22" t="s">
         <v>23</v>
       </c>
@@ -1675,7 +1758,7 @@
         <v>-3128.8910000000001</v>
       </c>
     </row>
-    <row r="23" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H23" t="s">
         <v>24</v>
       </c>
@@ -1696,7 +1779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47099D5-EED3-4D48-BE93-97FEE5E5C12B}">
   <dimension ref="A2:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
